--- a/game22/web.xlsx
+++ b/game22/web.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="15960" windowHeight="8235"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="14" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
   <si>
     <t>domain</t>
   </si>
@@ -46,64 +46,55 @@
     <t>json</t>
   </si>
   <si>
-    <t>vernations.cloud</t>
+    <t>play.vernations.cloud</t>
   </si>
   <si>
     <t>#ffa500</t>
   </si>
   <si>
-    <t>mizars.cloud</t>
+    <t>play.mizars.cloud</t>
   </si>
   <si>
     <t>#9d4edd</t>
   </si>
   <si>
-    <t>hortus.cloud</t>
+    <t>spuddles.fun</t>
+  </si>
+  <si>
+    <t>#707899</t>
+  </si>
+  <si>
+    <t>moilfuns.fun</t>
+  </si>
+  <si>
+    <t>#70c588</t>
+  </si>
+  <si>
+    <t>color1</t>
+  </si>
+  <si>
+    <t>orrerys.top</t>
+  </si>
+  <si>
+    <t>armillary.top</t>
+  </si>
+  <si>
+    <t>theodolite.top</t>
   </si>
   <si>
     <t>#64ffda</t>
   </si>
   <si>
-    <t>cruppers.top</t>
+    <t>cypselas.fun</t>
   </si>
   <si>
     <t>#e63946</t>
   </si>
   <si>
-    <t>secateurs.top</t>
+    <t>volutes.fun</t>
   </si>
   <si>
     <t>#c9a87a</t>
-  </si>
-  <si>
-    <t>spuddles.fun</t>
-  </si>
-  <si>
-    <t>#707899</t>
-  </si>
-  <si>
-    <t>moilfuns.fun</t>
-  </si>
-  <si>
-    <t>#70c588</t>
-  </si>
-  <si>
-    <t>color1</t>
-  </si>
-  <si>
-    <t>orrerys.top</t>
-  </si>
-  <si>
-    <t>armillary.top</t>
-  </si>
-  <si>
-    <t>theodolite.top</t>
-  </si>
-  <si>
-    <t>cypselas.fun</t>
-  </si>
-  <si>
-    <t>volutes.fun</t>
   </si>
   <si>
     <t>conatuss.top</t>
@@ -143,7 +134,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -176,6 +167,14 @@
     <font>
       <sz val="10.5"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -617,12 +616,25 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -726,148 +738,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -903,9 +915,6 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -924,10 +933,13 @@
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1319,7 +1331,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -1345,13 +1357,12 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C2"/>
       <c r="D2">
         <v>1</v>
       </c>
@@ -1360,13 +1371,12 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C3"/>
       <c r="D3">
         <v>2</v>
       </c>
@@ -1375,75 +1385,39 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4"/>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="14"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5"/>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="15"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6"/>
-      <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="B6" s="16"/>
     </row>
     <row r="16" spans="1:7">
       <c r="F16" s="19" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="6:7">
       <c r="F17" s="19" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F16" r:id="rId1" display="spuddles.fun"/>
     <hyperlink ref="F17" r:id="rId2" display="moilfuns.fun"/>
-    <hyperlink ref="A2" r:id="rId3" display="vernations.cloud"/>
-    <hyperlink ref="A3" r:id="rId4" display="mizars.cloud"/>
-    <hyperlink ref="A4" r:id="rId5" display="hortus.cloud"/>
-    <hyperlink ref="A5" r:id="rId6" display="cruppers.top"/>
-    <hyperlink ref="A6" r:id="rId7" display="secateurs.top"/>
+    <hyperlink ref="A2" r:id="rId3" display="play.vernations.cloud"/>
+    <hyperlink ref="A3" r:id="rId4" display="play.mizars.cloud"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1466,7 +1440,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -1479,10 +1453,10 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="12" t="s">
+      <c r="A2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>6</v>
       </c>
       <c r="D2">
@@ -1493,10 +1467,10 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="13" t="s">
+      <c r="A3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>8</v>
       </c>
       <c r="D3">
@@ -1507,11 +1481,11 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>10</v>
+      <c r="A4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>17</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -1521,11 +1495,11 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>12</v>
+      <c r="A5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>19</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -1535,11 +1509,11 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>14</v>
+      <c r="A6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>21</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -1573,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -1581,49 +1555,49 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
